--- a/Makeover-Monday/week15/State Fiscal Rankings.xlsx
+++ b/Makeover-Monday/week15/State Fiscal Rankings.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43ebdbc5d5265516/VizWiz/Makeover Monday/Data/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Di Zhang\Documents\GitHub\Kaggle-Projects\Makeover-Monday\week15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6C6558-E775-BE40-8C5D-CA45669A2CFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B3886-C958-450E-BD22-A2BBE2C9C681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16200" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$B$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lines!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="93">
   <si>
     <t>State</t>
   </si>
@@ -339,12 +341,15 @@
   <si>
     <t>13. opeb_income_ratio</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -400,6 +405,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,55 +696,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="AO1" activeCellId="2" sqref="B1:B1048576 A1:A1048576 AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -860,7 +869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -985,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -2485,7 +2494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -3235,7 +3244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -3610,7 +3619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -3860,7 +3869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -4360,7 +4369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -4610,7 +4619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
@@ -5360,7 +5369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>69</v>
       </c>
@@ -5485,7 +5494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>70</v>
       </c>
@@ -5610,7 +5619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>71</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
@@ -5860,7 +5869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
@@ -5985,7 +5994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>74</v>
       </c>
@@ -6110,7 +6119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>75</v>
       </c>
@@ -6235,7 +6244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>76</v>
       </c>
@@ -6360,7 +6369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>77</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>78</v>
       </c>
@@ -6610,7 +6619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>79</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
@@ -6860,7 +6869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>81</v>
       </c>
@@ -6985,7 +6994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>82</v>
       </c>
@@ -7110,7 +7119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:41" s="1" customFormat="1">
+    <row r="52" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>90</v>
       </c>
@@ -7235,7 +7244,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>34</v>
       </c>
@@ -7485,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
@@ -7610,7 +7619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>36</v>
       </c>
@@ -7735,7 +7744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>37</v>
       </c>
@@ -7860,7 +7869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>38</v>
       </c>
@@ -7985,7 +7994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>39</v>
       </c>
@@ -8110,7 +8119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>40</v>
       </c>
@@ -8235,7 +8244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>41</v>
       </c>
@@ -8360,7 +8369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>42</v>
       </c>
@@ -8485,7 +8494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>43</v>
       </c>
@@ -8610,7 +8619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
@@ -8735,7 +8744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>45</v>
       </c>
@@ -8860,7 +8869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>46</v>
       </c>
@@ -8985,7 +8994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>47</v>
       </c>
@@ -9110,7 +9119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>48</v>
       </c>
@@ -9235,7 +9244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>49</v>
       </c>
@@ -9360,7 +9369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>50</v>
       </c>
@@ -9485,7 +9494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>51</v>
       </c>
@@ -9610,7 +9619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>52</v>
       </c>
@@ -9735,7 +9744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>53</v>
       </c>
@@ -9860,7 +9869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>54</v>
       </c>
@@ -9985,7 +9994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>55</v>
       </c>
@@ -10110,7 +10119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -10235,7 +10244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>57</v>
       </c>
@@ -10360,7 +10369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>58</v>
       </c>
@@ -10485,7 +10494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>59</v>
       </c>
@@ -10610,7 +10619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>60</v>
       </c>
@@ -10735,7 +10744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>61</v>
       </c>
@@ -10860,7 +10869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>62</v>
       </c>
@@ -10985,7 +10994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>63</v>
       </c>
@@ -11110,7 +11119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>64</v>
       </c>
@@ -11235,7 +11244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>65</v>
       </c>
@@ -11360,7 +11369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>66</v>
       </c>
@@ -11485,7 +11494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>67</v>
       </c>
@@ -11610,7 +11619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>68</v>
       </c>
@@ -11735,7 +11744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>69</v>
       </c>
@@ -11860,7 +11869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>70</v>
       </c>
@@ -11985,7 +11994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>71</v>
       </c>
@@ -12110,7 +12119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>72</v>
       </c>
@@ -12235,7 +12244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>73</v>
       </c>
@@ -12360,7 +12369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>74</v>
       </c>
@@ -12485,7 +12494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>75</v>
       </c>
@@ -12610,7 +12619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>76</v>
       </c>
@@ -12735,7 +12744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>77</v>
       </c>
@@ -12860,7 +12869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>78</v>
       </c>
@@ -12985,7 +12994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>79</v>
       </c>
@@ -13110,7 +13119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>80</v>
       </c>
@@ -13235,7 +13244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>81</v>
       </c>
@@ -13360,7 +13369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>82</v>
       </c>
@@ -13485,7 +13494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:41" s="1" customFormat="1">
+    <row r="103" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>90</v>
       </c>
@@ -13610,7 +13619,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>33</v>
       </c>
@@ -13735,7 +13744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>34</v>
       </c>
@@ -13860,7 +13869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>35</v>
       </c>
@@ -13985,7 +13994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>36</v>
       </c>
@@ -14110,7 +14119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>37</v>
       </c>
@@ -14235,7 +14244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>38</v>
       </c>
@@ -14360,7 +14369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>39</v>
       </c>
@@ -14485,7 +14494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>40</v>
       </c>
@@ -14610,7 +14619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>41</v>
       </c>
@@ -14735,7 +14744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>42</v>
       </c>
@@ -14860,7 +14869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>43</v>
       </c>
@@ -14985,7 +14994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>44</v>
       </c>
@@ -15110,7 +15119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>45</v>
       </c>
@@ -15235,7 +15244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>46</v>
       </c>
@@ -15360,7 +15369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>47</v>
       </c>
@@ -15485,7 +15494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>48</v>
       </c>
@@ -15610,7 +15619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>49</v>
       </c>
@@ -15735,7 +15744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>50</v>
       </c>
@@ -15860,7 +15869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>51</v>
       </c>
@@ -15985,7 +15994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>52</v>
       </c>
@@ -16110,7 +16119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>53</v>
       </c>
@@ -16235,7 +16244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>54</v>
       </c>
@@ -16360,7 +16369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>55</v>
       </c>
@@ -16485,7 +16494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>56</v>
       </c>
@@ -16610,7 +16619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>57</v>
       </c>
@@ -16735,7 +16744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>58</v>
       </c>
@@ -16860,7 +16869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>59</v>
       </c>
@@ -16985,7 +16994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>60</v>
       </c>
@@ -17110,7 +17119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>61</v>
       </c>
@@ -17235,7 +17244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>62</v>
       </c>
@@ -17360,7 +17369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>63</v>
       </c>
@@ -17485,7 +17494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>64</v>
       </c>
@@ -17610,7 +17619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>65</v>
       </c>
@@ -17735,7 +17744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>66</v>
       </c>
@@ -17860,7 +17869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>67</v>
       </c>
@@ -17985,7 +17994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>68</v>
       </c>
@@ -18110,7 +18119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>69</v>
       </c>
@@ -18235,7 +18244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>70</v>
       </c>
@@ -18360,7 +18369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>71</v>
       </c>
@@ -18485,7 +18494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>72</v>
       </c>
@@ -18610,7 +18619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>73</v>
       </c>
@@ -18735,7 +18744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>74</v>
       </c>
@@ -18860,7 +18869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>75</v>
       </c>
@@ -18985,7 +18994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>76</v>
       </c>
@@ -19110,7 +19119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>77</v>
       </c>
@@ -19235,7 +19244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>78</v>
       </c>
@@ -19360,7 +19369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>79</v>
       </c>
@@ -19485,7 +19494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>80</v>
       </c>
@@ -19610,7 +19619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>81</v>
       </c>
@@ -19735,7 +19744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>82</v>
       </c>
@@ -19860,7 +19869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:41" s="1" customFormat="1">
+    <row r="154" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>90</v>
       </c>
@@ -19916,7 +19925,7 @@
         <v>6070274.5999999996</v>
       </c>
       <c r="S154" s="6">
-        <v>52661105517.289062</v>
+        <v>52661105517.289063</v>
       </c>
       <c r="T154" s="6">
         <v>12328087403.72352</v>
@@ -19985,7 +19994,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>33</v>
       </c>
@@ -20110,7 +20119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>34</v>
       </c>
@@ -20235,7 +20244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>35</v>
       </c>
@@ -20360,7 +20369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>36</v>
       </c>
@@ -20485,7 +20494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>37</v>
       </c>
@@ -20610,7 +20619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>38</v>
       </c>
@@ -20735,7 +20744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>39</v>
       </c>
@@ -20860,7 +20869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>40</v>
       </c>
@@ -20985,7 +20994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>41</v>
       </c>
@@ -21110,7 +21119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>42</v>
       </c>
@@ -21235,7 +21244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>43</v>
       </c>
@@ -21360,7 +21369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>44</v>
       </c>
@@ -21485,7 +21494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>45</v>
       </c>
@@ -21610,7 +21619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>46</v>
       </c>
@@ -21735,7 +21744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>47</v>
       </c>
@@ -21860,7 +21869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>48</v>
       </c>
@@ -21985,7 +21994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>49</v>
       </c>
@@ -22110,7 +22119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>50</v>
       </c>
@@ -22235,7 +22244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>51</v>
       </c>
@@ -22360,7 +22369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>52</v>
       </c>
@@ -22485,7 +22494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>53</v>
       </c>
@@ -22610,7 +22619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>54</v>
       </c>
@@ -22735,7 +22744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>55</v>
       </c>
@@ -22860,7 +22869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>56</v>
       </c>
@@ -22985,7 +22994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>57</v>
       </c>
@@ -23110,7 +23119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>58</v>
       </c>
@@ -23235,7 +23244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>59</v>
       </c>
@@ -23360,7 +23369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>60</v>
       </c>
@@ -23485,7 +23494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>61</v>
       </c>
@@ -23610,7 +23619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>62</v>
       </c>
@@ -23735,7 +23744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>63</v>
       </c>
@@ -23860,7 +23869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>64</v>
       </c>
@@ -23985,7 +23994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>65</v>
       </c>
@@ -24110,7 +24119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:41">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>66</v>
       </c>
@@ -24235,7 +24244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:41">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>67</v>
       </c>
@@ -24360,7 +24369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>68</v>
       </c>
@@ -24485,7 +24494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>69</v>
       </c>
@@ -24610,7 +24619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>70</v>
       </c>
@@ -24735,7 +24744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:41">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>71</v>
       </c>
@@ -24860,7 +24869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:41">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>72</v>
       </c>
@@ -24985,7 +24994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:41">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>73</v>
       </c>
@@ -25110,7 +25119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:41">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>74</v>
       </c>
@@ -25235,7 +25244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:41">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>75</v>
       </c>
@@ -25360,7 +25369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:41">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>76</v>
       </c>
@@ -25485,7 +25494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:41">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>77</v>
       </c>
@@ -25610,7 +25619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:41">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>78</v>
       </c>
@@ -25735,7 +25744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:41">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>79</v>
       </c>
@@ -25860,7 +25869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:41">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>80</v>
       </c>
@@ -25985,7 +25994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:41">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>81</v>
       </c>
@@ -26110,7 +26119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:41">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>82</v>
       </c>
@@ -26235,7 +26244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:41" s="1" customFormat="1">
+    <row r="205" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>90</v>
       </c>
@@ -26360,7 +26369,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="206" spans="1:41">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>33</v>
       </c>
@@ -26485,7 +26494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:41">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>34</v>
       </c>
@@ -26610,7 +26619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:41">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>35</v>
       </c>
@@ -26735,7 +26744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:41">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>36</v>
       </c>
@@ -26860,7 +26869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:41">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>37</v>
       </c>
@@ -26985,7 +26994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:41">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>38</v>
       </c>
@@ -27110,7 +27119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:41">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>39</v>
       </c>
@@ -27235,7 +27244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:41">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>40</v>
       </c>
@@ -27360,7 +27369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:41">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>41</v>
       </c>
@@ -27485,7 +27494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:41">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>42</v>
       </c>
@@ -27610,7 +27619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:41">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>43</v>
       </c>
@@ -27735,7 +27744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="217" spans="1:41">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>44</v>
       </c>
@@ -27860,7 +27869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:41">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>45</v>
       </c>
@@ -27985,7 +27994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:41">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>46</v>
       </c>
@@ -28110,7 +28119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:41">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>47</v>
       </c>
@@ -28235,7 +28244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:41">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>48</v>
       </c>
@@ -28360,7 +28369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:41">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>49</v>
       </c>
@@ -28485,7 +28494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="223" spans="1:41">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>50</v>
       </c>
@@ -28610,7 +28619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:41">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>51</v>
       </c>
@@ -28735,7 +28744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:41">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>52</v>
       </c>
@@ -28860,7 +28869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:41">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>53</v>
       </c>
@@ -28985,7 +28994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="227" spans="1:41">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>54</v>
       </c>
@@ -29110,7 +29119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:41">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>55</v>
       </c>
@@ -29235,7 +29244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:41">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>56</v>
       </c>
@@ -29360,7 +29369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:41">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>57</v>
       </c>
@@ -29485,7 +29494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:41">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>58</v>
       </c>
@@ -29610,7 +29619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:41">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>59</v>
       </c>
@@ -29735,7 +29744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:41">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>60</v>
       </c>
@@ -29860,7 +29869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:41">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>61</v>
       </c>
@@ -29985,7 +29994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:41">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>62</v>
       </c>
@@ -30110,7 +30119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:41">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>63</v>
       </c>
@@ -30235,7 +30244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="1:41">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>64</v>
       </c>
@@ -30360,7 +30369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:41">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>65</v>
       </c>
@@ -30485,7 +30494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:41">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>66</v>
       </c>
@@ -30610,7 +30619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:41">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>67</v>
       </c>
@@ -30735,7 +30744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:41">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>68</v>
       </c>
@@ -30860,7 +30869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:41">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>69</v>
       </c>
@@ -30985,7 +30994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:41">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>70</v>
       </c>
@@ -31110,7 +31119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:41">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>71</v>
       </c>
@@ -31235,7 +31244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:41">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>72</v>
       </c>
@@ -31360,7 +31369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:41">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>73</v>
       </c>
@@ -31485,7 +31494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:41">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>74</v>
       </c>
@@ -31610,7 +31619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:41">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>75</v>
       </c>
@@ -31735,7 +31744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:41">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>76</v>
       </c>
@@ -31860,7 +31869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:41">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>77</v>
       </c>
@@ -31985,7 +31994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:41">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>78</v>
       </c>
@@ -32110,7 +32119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:41">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>79</v>
       </c>
@@ -32235,7 +32244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:41">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>80</v>
       </c>
@@ -32360,7 +32369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:41">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>81</v>
       </c>
@@ -32485,7 +32494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:41">
+    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>82</v>
       </c>
@@ -32610,7 +32619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:41" s="1" customFormat="1">
+    <row r="256" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>90</v>
       </c>
@@ -32735,7 +32744,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="257" spans="1:41">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>33</v>
       </c>
@@ -32860,7 +32869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:41">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>34</v>
       </c>
@@ -32985,7 +32994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:41">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>35</v>
       </c>
@@ -33110,7 +33119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="1:41">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>36</v>
       </c>
@@ -33235,7 +33244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:41">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>37</v>
       </c>
@@ -33360,7 +33369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:41">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>38</v>
       </c>
@@ -33485,7 +33494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:41">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>39</v>
       </c>
@@ -33610,7 +33619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:41">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>40</v>
       </c>
@@ -33735,7 +33744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:41">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>41</v>
       </c>
@@ -33860,7 +33869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:41">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>42</v>
       </c>
@@ -33985,7 +33994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:41">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>43</v>
       </c>
@@ -34110,7 +34119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="268" spans="1:41">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>44</v>
       </c>
@@ -34235,7 +34244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:41">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>45</v>
       </c>
@@ -34360,7 +34369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="270" spans="1:41">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>46</v>
       </c>
@@ -34485,7 +34494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:41">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>47</v>
       </c>
@@ -34610,7 +34619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:41">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>48</v>
       </c>
@@ -34735,7 +34744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:41">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>49</v>
       </c>
@@ -34860,7 +34869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" spans="1:41">
+    <row r="274" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>50</v>
       </c>
@@ -34985,7 +34994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:41">
+    <row r="275" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>51</v>
       </c>
@@ -35110,7 +35119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="276" spans="1:41">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>52</v>
       </c>
@@ -35235,7 +35244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:41">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>53</v>
       </c>
@@ -35360,7 +35369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:41">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>54</v>
       </c>
@@ -35485,7 +35494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:41">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>55</v>
       </c>
@@ -35610,7 +35619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:41">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>56</v>
       </c>
@@ -35735,7 +35744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="1:41">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>57</v>
       </c>
@@ -35860,7 +35869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:41">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>58</v>
       </c>
@@ -35985,7 +35994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:41">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>59</v>
       </c>
@@ -36110,7 +36119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:41">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>60</v>
       </c>
@@ -36235,7 +36244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:41">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>61</v>
       </c>
@@ -36360,7 +36369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:41">
+    <row r="286" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>62</v>
       </c>
@@ -36485,7 +36494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="287" spans="1:41">
+    <row r="287" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>63</v>
       </c>
@@ -36610,7 +36619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:41">
+    <row r="288" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>64</v>
       </c>
@@ -36735,7 +36744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:41">
+    <row r="289" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>65</v>
       </c>
@@ -36860,7 +36869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:41">
+    <row r="290" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>66</v>
       </c>
@@ -36985,7 +36994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:41">
+    <row r="291" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>67</v>
       </c>
@@ -37110,7 +37119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:41">
+    <row r="292" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>68</v>
       </c>
@@ -37235,7 +37244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:41">
+    <row r="293" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>69</v>
       </c>
@@ -37360,7 +37369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:41">
+    <row r="294" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>70</v>
       </c>
@@ -37485,7 +37494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:41">
+    <row r="295" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>71</v>
       </c>
@@ -37610,7 +37619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:41">
+    <row r="296" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>72</v>
       </c>
@@ -37735,7 +37744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:41">
+    <row r="297" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>73</v>
       </c>
@@ -37860,7 +37869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:41">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>74</v>
       </c>
@@ -37985,7 +37994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:41">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>75</v>
       </c>
@@ -38110,7 +38119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:41">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>76</v>
       </c>
@@ -38235,7 +38244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:41">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>77</v>
       </c>
@@ -38360,7 +38369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:41">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>78</v>
       </c>
@@ -38485,7 +38494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:41">
+    <row r="303" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>79</v>
       </c>
@@ -38610,7 +38619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:41">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>80</v>
       </c>
@@ -38735,7 +38744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:41">
+    <row r="305" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>81</v>
       </c>
@@ -38860,7 +38869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="306" spans="1:41">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>82</v>
       </c>
@@ -38985,7 +38994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:41" s="1" customFormat="1">
+    <row r="307" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>90</v>
       </c>
@@ -39110,7 +39119,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="308" spans="1:41" s="3" customFormat="1">
+    <row r="308" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>33</v>
       </c>
@@ -39235,7 +39244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:41">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>34</v>
       </c>
@@ -39360,7 +39369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:41">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>35</v>
       </c>
@@ -39485,7 +39494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="311" spans="1:41">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>36</v>
       </c>
@@ -39610,7 +39619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:41">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>37</v>
       </c>
@@ -39735,7 +39744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="313" spans="1:41">
+    <row r="313" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>38</v>
       </c>
@@ -39860,7 +39869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:41">
+    <row r="314" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>39</v>
       </c>
@@ -39985,7 +39994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:41">
+    <row r="315" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>40</v>
       </c>
@@ -40110,7 +40119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:41">
+    <row r="316" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>41</v>
       </c>
@@ -40235,7 +40244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:41">
+    <row r="317" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>42</v>
       </c>
@@ -40360,7 +40369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:41">
+    <row r="318" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>43</v>
       </c>
@@ -40485,7 +40494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="319" spans="1:41">
+    <row r="319" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>44</v>
       </c>
@@ -40610,7 +40619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:41">
+    <row r="320" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>45</v>
       </c>
@@ -40735,7 +40744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="321" spans="1:41">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>46</v>
       </c>
@@ -40860,7 +40869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:41">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>47</v>
       </c>
@@ -40985,7 +40994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:41">
+    <row r="323" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>48</v>
       </c>
@@ -41110,7 +41119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:41">
+    <row r="324" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>49</v>
       </c>
@@ -41235,7 +41244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="1:41">
+    <row r="325" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>50</v>
       </c>
@@ -41360,7 +41369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:41">
+    <row r="326" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>51</v>
       </c>
@@ -41485,7 +41494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:41">
+    <row r="327" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>52</v>
       </c>
@@ -41610,7 +41619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:41">
+    <row r="328" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>53</v>
       </c>
@@ -41735,7 +41744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="329" spans="1:41">
+    <row r="329" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>54</v>
       </c>
@@ -41860,7 +41869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:41">
+    <row r="330" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>55</v>
       </c>
@@ -41985,7 +41994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:41">
+    <row r="331" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>56</v>
       </c>
@@ -42110,7 +42119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="1:41">
+    <row r="332" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>57</v>
       </c>
@@ -42235,7 +42244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:41">
+    <row r="333" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>58</v>
       </c>
@@ -42360,7 +42369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:41">
+    <row r="334" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>59</v>
       </c>
@@ -42485,7 +42494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:41">
+    <row r="335" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>60</v>
       </c>
@@ -42610,7 +42619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:41">
+    <row r="336" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>61</v>
       </c>
@@ -42735,7 +42744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:41">
+    <row r="337" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>62</v>
       </c>
@@ -42860,7 +42869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="338" spans="1:41">
+    <row r="338" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>63</v>
       </c>
@@ -42985,7 +42994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:41">
+    <row r="339" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>64</v>
       </c>
@@ -43110,7 +43119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:41">
+    <row r="340" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>65</v>
       </c>
@@ -43235,7 +43244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:41">
+    <row r="341" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>66</v>
       </c>
@@ -43360,7 +43369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:41">
+    <row r="342" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>67</v>
       </c>
@@ -43485,7 +43494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:41">
+    <row r="343" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>68</v>
       </c>
@@ -43610,7 +43619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:41">
+    <row r="344" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>69</v>
       </c>
@@ -43735,7 +43744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="1:41">
+    <row r="345" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>70</v>
       </c>
@@ -43860,7 +43869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:41">
+    <row r="346" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>71</v>
       </c>
@@ -43985,7 +43994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:41">
+    <row r="347" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>72</v>
       </c>
@@ -44110,7 +44119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="348" spans="1:41">
+    <row r="348" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>73</v>
       </c>
@@ -44235,7 +44244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:41">
+    <row r="349" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>74</v>
       </c>
@@ -44360,7 +44369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:41">
+    <row r="350" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>75</v>
       </c>
@@ -44485,7 +44494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:41">
+    <row r="351" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>76</v>
       </c>
@@ -44610,7 +44619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:41">
+    <row r="352" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>77</v>
       </c>
@@ -44735,7 +44744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="353" spans="1:41">
+    <row r="353" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>78</v>
       </c>
@@ -44860,7 +44869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:41">
+    <row r="354" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>79</v>
       </c>
@@ -44985,7 +44994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:41">
+    <row r="355" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>80</v>
       </c>
@@ -45110,7 +45119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="356" spans="1:41">
+    <row r="356" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>81</v>
       </c>
@@ -45235,7 +45244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:41">
+    <row r="357" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>82</v>
       </c>
@@ -45360,7 +45369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:41" s="1" customFormat="1">
+    <row r="358" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>90</v>
       </c>
@@ -45485,7 +45494,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="359" spans="1:41">
+    <row r="359" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>33</v>
       </c>
@@ -45610,7 +45619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:41">
+    <row r="360" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>34</v>
       </c>
@@ -45735,7 +45744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:41">
+    <row r="361" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>35</v>
       </c>
@@ -45860,7 +45869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="1:41">
+    <row r="362" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>36</v>
       </c>
@@ -45985,7 +45994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:41">
+    <row r="363" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>37</v>
       </c>
@@ -46110,7 +46119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="364" spans="1:41">
+    <row r="364" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>38</v>
       </c>
@@ -46235,7 +46244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:41">
+    <row r="365" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>39</v>
       </c>
@@ -46360,7 +46369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="1:41">
+    <row r="366" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>40</v>
       </c>
@@ -46485,7 +46494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:41">
+    <row r="367" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>41</v>
       </c>
@@ -46610,7 +46619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:41">
+    <row r="368" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>42</v>
       </c>
@@ -46735,7 +46744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:41">
+    <row r="369" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>43</v>
       </c>
@@ -46860,7 +46869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="1:41">
+    <row r="370" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>44</v>
       </c>
@@ -46985,7 +46994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:41">
+    <row r="371" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>45</v>
       </c>
@@ -47110,7 +47119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="372" spans="1:41">
+    <row r="372" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>46</v>
       </c>
@@ -47235,7 +47244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:41">
+    <row r="373" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>47</v>
       </c>
@@ -47360,7 +47369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:41">
+    <row r="374" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>48</v>
       </c>
@@ -47485,7 +47494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:41">
+    <row r="375" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>49</v>
       </c>
@@ -47610,7 +47619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="376" spans="1:41">
+    <row r="376" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>50</v>
       </c>
@@ -47735,7 +47744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="1:41">
+    <row r="377" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>51</v>
       </c>
@@ -47860,7 +47869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="378" spans="1:41">
+    <row r="378" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>52</v>
       </c>
@@ -47985,7 +47994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="379" spans="1:41">
+    <row r="379" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>53</v>
       </c>
@@ -48110,7 +48119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:41">
+    <row r="380" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>54</v>
       </c>
@@ -48235,7 +48244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="381" spans="1:41">
+    <row r="381" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>55</v>
       </c>
@@ -48360,7 +48369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:41">
+    <row r="382" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>56</v>
       </c>
@@ -48485,7 +48494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="383" spans="1:41">
+    <row r="383" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>57</v>
       </c>
@@ -48610,7 +48619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:41">
+    <row r="384" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>58</v>
       </c>
@@ -48735,7 +48744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:41">
+    <row r="385" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>59</v>
       </c>
@@ -48860,7 +48869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:41">
+    <row r="386" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>60</v>
       </c>
@@ -48985,7 +48994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:41">
+    <row r="387" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>61</v>
       </c>
@@ -49110,7 +49119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:41">
+    <row r="388" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>62</v>
       </c>
@@ -49235,7 +49244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="389" spans="1:41">
+    <row r="389" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>63</v>
       </c>
@@ -49360,7 +49369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="1:41">
+    <row r="390" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>64</v>
       </c>
@@ -49485,7 +49494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:41">
+    <row r="391" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>65</v>
       </c>
@@ -49610,7 +49619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" spans="1:41">
+    <row r="392" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>66</v>
       </c>
@@ -49735,7 +49744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:41">
+    <row r="393" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>67</v>
       </c>
@@ -49860,7 +49869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:41">
+    <row r="394" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>68</v>
       </c>
@@ -49985,7 +49994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:41">
+    <row r="395" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>69</v>
       </c>
@@ -50110,7 +50119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:41">
+    <row r="396" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>70</v>
       </c>
@@ -50235,7 +50244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:41">
+    <row r="397" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>71</v>
       </c>
@@ -50360,7 +50369,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="398" spans="1:41">
+    <row r="398" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>72</v>
       </c>
@@ -50485,7 +50494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="1:41">
+    <row r="399" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>73</v>
       </c>
@@ -50610,7 +50619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:41">
+    <row r="400" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>74</v>
       </c>
@@ -50735,7 +50744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:41">
+    <row r="401" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>75</v>
       </c>
@@ -50860,7 +50869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:41">
+    <row r="402" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>76</v>
       </c>
@@ -50985,7 +50994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:41">
+    <row r="403" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>77</v>
       </c>
@@ -51110,7 +51119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="404" spans="1:41">
+    <row r="404" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>78</v>
       </c>
@@ -51235,7 +51244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:41">
+    <row r="405" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>79</v>
       </c>
@@ -51360,7 +51369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:41">
+    <row r="406" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>80</v>
       </c>
@@ -51485,7 +51494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="407" spans="1:41">
+    <row r="407" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>81</v>
       </c>
@@ -51610,7 +51619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:41">
+    <row r="408" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>82</v>
       </c>
@@ -51735,7 +51744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:41" s="1" customFormat="1">
+    <row r="409" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>90</v>
       </c>
@@ -51860,7 +51869,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="410" spans="1:41">
+    <row r="410" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>33</v>
       </c>
@@ -51985,7 +51994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:41">
+    <row r="411" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>34</v>
       </c>
@@ -52110,7 +52119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:41">
+    <row r="412" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>35</v>
       </c>
@@ -52235,7 +52244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:41">
+    <row r="413" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>36</v>
       </c>
@@ -52360,7 +52369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="1:41">
+    <row r="414" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>37</v>
       </c>
@@ -52485,7 +52494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="415" spans="1:41">
+    <row r="415" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>38</v>
       </c>
@@ -52610,7 +52619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:41">
+    <row r="416" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>39</v>
       </c>
@@ -52735,7 +52744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="417" spans="1:41">
+    <row r="417" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>40</v>
       </c>
@@ -52860,7 +52869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="418" spans="1:41">
+    <row r="418" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>41</v>
       </c>
@@ -52985,7 +52994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:41">
+    <row r="419" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>42</v>
       </c>
@@ -53110,7 +53119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:41">
+    <row r="420" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>43</v>
       </c>
@@ -53235,7 +53244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:41">
+    <row r="421" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>44</v>
       </c>
@@ -53360,7 +53369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:41">
+    <row r="422" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>45</v>
       </c>
@@ -53485,7 +53494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="423" spans="1:41">
+    <row r="423" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>46</v>
       </c>
@@ -53610,7 +53619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:41">
+    <row r="424" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>47</v>
       </c>
@@ -53735,7 +53744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:41">
+    <row r="425" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>48</v>
       </c>
@@ -53860,7 +53869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:41">
+    <row r="426" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>49</v>
       </c>
@@ -53985,7 +53994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="427" spans="1:41">
+    <row r="427" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>50</v>
       </c>
@@ -54110,7 +54119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="1:41">
+    <row r="428" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>51</v>
       </c>
@@ -54235,7 +54244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:41">
+    <row r="429" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>52</v>
       </c>
@@ -54360,7 +54369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="430" spans="1:41">
+    <row r="430" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>53</v>
       </c>
@@ -54485,7 +54494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="431" spans="1:41">
+    <row r="431" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>54</v>
       </c>
@@ -54610,7 +54619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="432" spans="1:41">
+    <row r="432" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>55</v>
       </c>
@@ -54735,7 +54744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:41">
+    <row r="433" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>56</v>
       </c>
@@ -54860,7 +54869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="434" spans="1:41">
+    <row r="434" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>57</v>
       </c>
@@ -54985,7 +54994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:41">
+    <row r="435" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>58</v>
       </c>
@@ -55110,7 +55119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:41">
+    <row r="436" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>59</v>
       </c>
@@ -55235,7 +55244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:41">
+    <row r="437" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>60</v>
       </c>
@@ -55360,7 +55369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:41">
+    <row r="438" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>61</v>
       </c>
@@ -55485,7 +55494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:41">
+    <row r="439" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>62</v>
       </c>
@@ -55610,7 +55619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="440" spans="1:41">
+    <row r="440" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>63</v>
       </c>
@@ -55735,7 +55744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="441" spans="1:41">
+    <row r="441" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>64</v>
       </c>
@@ -55860,7 +55869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="442" spans="1:41">
+    <row r="442" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>65</v>
       </c>
@@ -55985,7 +55994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:41">
+    <row r="443" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>66</v>
       </c>
@@ -56110,7 +56119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:41">
+    <row r="444" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>67</v>
       </c>
@@ -56235,7 +56244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:41">
+    <row r="445" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>68</v>
       </c>
@@ -56360,7 +56369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:41">
+    <row r="446" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>69</v>
       </c>
@@ -56485,7 +56494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="447" spans="1:41">
+    <row r="447" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>70</v>
       </c>
@@ -56610,7 +56619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="448" spans="1:41">
+    <row r="448" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>71</v>
       </c>
@@ -56735,7 +56744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="449" spans="1:41">
+    <row r="449" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>72</v>
       </c>
@@ -56860,7 +56869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:41">
+    <row r="450" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>73</v>
       </c>
@@ -56985,7 +56994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:41">
+    <row r="451" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>74</v>
       </c>
@@ -57110,7 +57119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:41">
+    <row r="452" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>75</v>
       </c>
@@ -57235,7 +57244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:41">
+    <row r="453" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>76</v>
       </c>
@@ -57360,7 +57369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:41">
+    <row r="454" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>77</v>
       </c>
@@ -57485,7 +57494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="455" spans="1:41">
+    <row r="455" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>78</v>
       </c>
@@ -57610,7 +57619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:41">
+    <row r="456" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>79</v>
       </c>
@@ -57735,7 +57744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="457" spans="1:41">
+    <row r="457" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>80</v>
       </c>
@@ -57860,7 +57869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="458" spans="1:41">
+    <row r="458" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>81</v>
       </c>
@@ -57985,7 +57994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:41">
+    <row r="459" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>82</v>
       </c>
@@ -58110,7 +58119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:41" s="1" customFormat="1">
+    <row r="460" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>90</v>
       </c>
@@ -58235,7 +58244,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="461" spans="1:41">
+    <row r="461" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>33</v>
       </c>
@@ -58360,7 +58369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:41">
+    <row r="462" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>34</v>
       </c>
@@ -58485,7 +58494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:41">
+    <row r="463" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>35</v>
       </c>
@@ -58610,7 +58619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:41">
+    <row r="464" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>36</v>
       </c>
@@ -58735,7 +58744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:41">
+    <row r="465" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>37</v>
       </c>
@@ -58860,7 +58869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" spans="1:41">
+    <row r="466" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>38</v>
       </c>
@@ -58985,7 +58994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:41">
+    <row r="467" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>39</v>
       </c>
@@ -59110,7 +59119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="468" spans="1:41">
+    <row r="468" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>40</v>
       </c>
@@ -59235,7 +59244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:41">
+    <row r="469" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>41</v>
       </c>
@@ -59360,7 +59369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:41">
+    <row r="470" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>42</v>
       </c>
@@ -59485,7 +59494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:41">
+    <row r="471" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>43</v>
       </c>
@@ -59610,7 +59619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="472" spans="1:41">
+    <row r="472" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>44</v>
       </c>
@@ -59735,7 +59744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:41">
+    <row r="473" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>45</v>
       </c>
@@ -59860,7 +59869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="474" spans="1:41">
+    <row r="474" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>46</v>
       </c>
@@ -59985,7 +59994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:41">
+    <row r="475" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>47</v>
       </c>
@@ -60110,7 +60119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:41">
+    <row r="476" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>48</v>
       </c>
@@ -60235,7 +60244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="477" spans="1:41">
+    <row r="477" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>49</v>
       </c>
@@ -60360,7 +60369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="478" spans="1:41">
+    <row r="478" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>50</v>
       </c>
@@ -60485,7 +60494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="479" spans="1:41">
+    <row r="479" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>51</v>
       </c>
@@ -60610,7 +60619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:41">
+    <row r="480" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>52</v>
       </c>
@@ -60735,7 +60744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="481" spans="1:41">
+    <row r="481" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>53</v>
       </c>
@@ -60860,7 +60869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="482" spans="1:41">
+    <row r="482" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>54</v>
       </c>
@@ -60985,7 +60994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="483" spans="1:41">
+    <row r="483" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>55</v>
       </c>
@@ -61110,7 +61119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="484" spans="1:41">
+    <row r="484" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>56</v>
       </c>
@@ -61235,7 +61244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="485" spans="1:41">
+    <row r="485" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>57</v>
       </c>
@@ -61360,7 +61369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:41">
+    <row r="486" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>58</v>
       </c>
@@ -61485,7 +61494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:41">
+    <row r="487" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>59</v>
       </c>
@@ -61610,7 +61619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:41">
+    <row r="488" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>60</v>
       </c>
@@ -61735,7 +61744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:41">
+    <row r="489" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>61</v>
       </c>
@@ -61860,7 +61869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:41">
+    <row r="490" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>62</v>
       </c>
@@ -61985,7 +61994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="491" spans="1:41">
+    <row r="491" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>63</v>
       </c>
@@ -62110,7 +62119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="492" spans="1:41">
+    <row r="492" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>64</v>
       </c>
@@ -62235,7 +62244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="493" spans="1:41">
+    <row r="493" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>65</v>
       </c>
@@ -62360,7 +62369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" spans="1:41">
+    <row r="494" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>66</v>
       </c>
@@ -62485,7 +62494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:41">
+    <row r="495" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>67</v>
       </c>
@@ -62610,7 +62619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:41">
+    <row r="496" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>68</v>
       </c>
@@ -62735,7 +62744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:41">
+    <row r="497" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>69</v>
       </c>
@@ -62860,7 +62869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="498" spans="1:41">
+    <row r="498" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>70</v>
       </c>
@@ -62985,7 +62994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="499" spans="1:41">
+    <row r="499" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>71</v>
       </c>
@@ -63110,7 +63119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="500" spans="1:41">
+    <row r="500" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>72</v>
       </c>
@@ -63235,7 +63244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="501" spans="1:41">
+    <row r="501" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>73</v>
       </c>
@@ -63360,7 +63369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:41">
+    <row r="502" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>74</v>
       </c>
@@ -63485,7 +63494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:41">
+    <row r="503" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>75</v>
       </c>
@@ -63610,7 +63619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="504" spans="1:41">
+    <row r="504" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>76</v>
       </c>
@@ -63735,7 +63744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:41">
+    <row r="505" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>77</v>
       </c>
@@ -63860,7 +63869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="506" spans="1:41">
+    <row r="506" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>78</v>
       </c>
@@ -63985,7 +63994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:41">
+    <row r="507" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>79</v>
       </c>
@@ -64110,7 +64119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="1:41">
+    <row r="508" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>80</v>
       </c>
@@ -64235,7 +64244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="509" spans="1:41">
+    <row r="509" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>81</v>
       </c>
@@ -64360,7 +64369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="510" spans="1:41">
+    <row r="510" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>82</v>
       </c>
@@ -64485,7 +64494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:41" s="1" customFormat="1">
+    <row r="511" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>90</v>
       </c>
@@ -64610,7 +64619,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="512" spans="1:41">
+    <row r="512" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>33</v>
       </c>
@@ -64735,7 +64744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="1:41">
+    <row r="513" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>34</v>
       </c>
@@ -64860,7 +64869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:41">
+    <row r="514" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>35</v>
       </c>
@@ -64985,7 +64994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:41">
+    <row r="515" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>36</v>
       </c>
@@ -65110,7 +65119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:41">
+    <row r="516" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>37</v>
       </c>
@@ -65235,7 +65244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="517" spans="1:41">
+    <row r="517" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>38</v>
       </c>
@@ -65360,7 +65369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="518" spans="1:41">
+    <row r="518" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>39</v>
       </c>
@@ -65485,7 +65494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="519" spans="1:41">
+    <row r="519" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>40</v>
       </c>
@@ -65610,7 +65619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="520" spans="1:41">
+    <row r="520" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>41</v>
       </c>
@@ -65735,7 +65744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:41">
+    <row r="521" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>42</v>
       </c>
@@ -65860,7 +65869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="522" spans="1:41">
+    <row r="522" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>43</v>
       </c>
@@ -65985,7 +65994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="523" spans="1:41">
+    <row r="523" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>44</v>
       </c>
@@ -66110,7 +66119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:41">
+    <row r="524" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>45</v>
       </c>
@@ -66235,7 +66244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="525" spans="1:41">
+    <row r="525" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>46</v>
       </c>
@@ -66360,7 +66369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:41">
+    <row r="526" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>47</v>
       </c>
@@ -66485,7 +66494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="527" spans="1:41">
+    <row r="527" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>48</v>
       </c>
@@ -66610,7 +66619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="528" spans="1:41">
+    <row r="528" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>49</v>
       </c>
@@ -66735,7 +66744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="529" spans="1:41">
+    <row r="529" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>50</v>
       </c>
@@ -66860,7 +66869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="530" spans="1:41">
+    <row r="530" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>51</v>
       </c>
@@ -66985,7 +66994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="531" spans="1:41">
+    <row r="531" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>52</v>
       </c>
@@ -67110,7 +67119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="532" spans="1:41">
+    <row r="532" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>53</v>
       </c>
@@ -67235,7 +67244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="533" spans="1:41">
+    <row r="533" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>54</v>
       </c>
@@ -67360,7 +67369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="534" spans="1:41">
+    <row r="534" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>55</v>
       </c>
@@ -67485,7 +67494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="535" spans="1:41">
+    <row r="535" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>56</v>
       </c>
@@ -67610,7 +67619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="536" spans="1:41">
+    <row r="536" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>57</v>
       </c>
@@ -67735,7 +67744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="537" spans="1:41">
+    <row r="537" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>58</v>
       </c>
@@ -67860,7 +67869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:41">
+    <row r="538" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>59</v>
       </c>
@@ -67985,7 +67994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:41">
+    <row r="539" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>60</v>
       </c>
@@ -68110,7 +68119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:41">
+    <row r="540" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>61</v>
       </c>
@@ -68235,7 +68244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:41">
+    <row r="541" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>62</v>
       </c>
@@ -68360,7 +68369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="542" spans="1:41">
+    <row r="542" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>63</v>
       </c>
@@ -68485,7 +68494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="543" spans="1:41">
+    <row r="543" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>64</v>
       </c>
@@ -68610,7 +68619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="544" spans="1:41">
+    <row r="544" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>65</v>
       </c>
@@ -68735,7 +68744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="1:41">
+    <row r="545" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>66</v>
       </c>
@@ -68860,7 +68869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="1:41">
+    <row r="546" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>67</v>
       </c>
@@ -68985,7 +68994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:41">
+    <row r="547" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>68</v>
       </c>
@@ -69110,7 +69119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="548" spans="1:41">
+    <row r="548" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>69</v>
       </c>
@@ -69235,7 +69244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="549" spans="1:41">
+    <row r="549" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>70</v>
       </c>
@@ -69360,7 +69369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="550" spans="1:41">
+    <row r="550" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>71</v>
       </c>
@@ -69485,7 +69494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="551" spans="1:41">
+    <row r="551" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>72</v>
       </c>
@@ -69610,7 +69619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="552" spans="1:41">
+    <row r="552" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>73</v>
       </c>
@@ -69735,7 +69744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:41">
+    <row r="553" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>74</v>
       </c>
@@ -69860,7 +69869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:41">
+    <row r="554" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>75</v>
       </c>
@@ -69985,7 +69994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="555" spans="1:41">
+    <row r="555" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>76</v>
       </c>
@@ -70110,7 +70119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:41">
+    <row r="556" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>77</v>
       </c>
@@ -70235,7 +70244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="557" spans="1:41">
+    <row r="557" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>78</v>
       </c>
@@ -70360,7 +70369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:41">
+    <row r="558" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>79</v>
       </c>
@@ -70485,7 +70494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="559" spans="1:41">
+    <row r="559" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>80</v>
       </c>
@@ -70610,7 +70619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="560" spans="1:41">
+    <row r="560" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>81</v>
       </c>
@@ -70735,7 +70744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:41">
+    <row r="561" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>82</v>
       </c>
@@ -70860,7 +70869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:41" s="1" customFormat="1">
+    <row r="562" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>90</v>
       </c>
@@ -70998,4 +71007,2355 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F934E82F-BF28-4FD8-84B9-05C9C7CA88FE}">
+  <dimension ref="A1:AZ52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>27</v>
+      </c>
+      <c r="K2" s="7">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="7">
+        <v>11</v>
+      </c>
+      <c r="O2" s="7">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>7</v>
+      </c>
+      <c r="R2" s="7">
+        <v>29</v>
+      </c>
+      <c r="S2" s="7">
+        <v>21</v>
+      </c>
+      <c r="T2" s="7">
+        <v>19</v>
+      </c>
+      <c r="U2" s="7">
+        <v>36</v>
+      </c>
+      <c r="V2" s="7">
+        <v>13</v>
+      </c>
+      <c r="W2" s="7">
+        <v>9</v>
+      </c>
+      <c r="X2" s="7">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>28</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>41</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>35</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>39</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>49</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>38</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>45</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>34</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>43</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>27</v>
+      </c>
+      <c r="K3" s="7">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" s="7">
+        <v>14</v>
+      </c>
+      <c r="O3" s="7">
+        <v>7</v>
+      </c>
+      <c r="P3" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>6</v>
+      </c>
+      <c r="R3" s="7">
+        <v>28</v>
+      </c>
+      <c r="S3" s="7">
+        <v>21</v>
+      </c>
+      <c r="T3" s="7">
+        <v>20</v>
+      </c>
+      <c r="U3" s="7">
+        <v>37</v>
+      </c>
+      <c r="V3" s="7">
+        <v>11</v>
+      </c>
+      <c r="W3" s="7">
+        <v>19</v>
+      </c>
+      <c r="X3" s="7">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>17</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>23</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>41</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>26</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>34</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>18</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>36</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>49</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>42</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>43</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>29</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>39</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>50</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>45</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>38</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>40</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14</v>
+      </c>
+      <c r="O4" s="7">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>7</v>
+      </c>
+      <c r="R4" s="7">
+        <v>20</v>
+      </c>
+      <c r="S4" s="7">
+        <v>24</v>
+      </c>
+      <c r="T4" s="7">
+        <v>16</v>
+      </c>
+      <c r="U4" s="7">
+        <v>43</v>
+      </c>
+      <c r="V4" s="7">
+        <v>4</v>
+      </c>
+      <c r="W4" s="7">
+        <v>19</v>
+      </c>
+      <c r="X4" s="7">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>33</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>42</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>25</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>40</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>36</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>50</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>38</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>44</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>31</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>41</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>49</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>47</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>37</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>46</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>45</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43</v>
+      </c>
+      <c r="H5" s="7">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7">
+        <v>5</v>
+      </c>
+      <c r="P5" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>11</v>
+      </c>
+      <c r="R5" s="7">
+        <v>24</v>
+      </c>
+      <c r="S5" s="7">
+        <v>19</v>
+      </c>
+      <c r="T5" s="7">
+        <v>14</v>
+      </c>
+      <c r="U5" s="7">
+        <v>34</v>
+      </c>
+      <c r="V5" s="7">
+        <v>8</v>
+      </c>
+      <c r="W5" s="7">
+        <v>15</v>
+      </c>
+      <c r="X5" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>17</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>35</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>33</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>28</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>20</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>36</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>47</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>41</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>46</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>25</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>38</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>48</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>44</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>37</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>45</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>40</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" s="7">
+        <v>12</v>
+      </c>
+      <c r="O6" s="7">
+        <v>9</v>
+      </c>
+      <c r="P6" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>7</v>
+      </c>
+      <c r="R6" s="7">
+        <v>24</v>
+      </c>
+      <c r="S6" s="7">
+        <v>21</v>
+      </c>
+      <c r="T6" s="7">
+        <v>14</v>
+      </c>
+      <c r="U6" s="7">
+        <v>35</v>
+      </c>
+      <c r="V6" s="7">
+        <v>11</v>
+      </c>
+      <c r="W6" s="7">
+        <v>16</v>
+      </c>
+      <c r="X6" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>18</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>38</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>26</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>34</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>29</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>32</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>23</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>49</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>36</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>47</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>42</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>41</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>28</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>37</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>43</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>45</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>48</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>44</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>46</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7">
+        <v>14</v>
+      </c>
+      <c r="O7" s="7">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>10</v>
+      </c>
+      <c r="R7" s="7">
+        <v>23</v>
+      </c>
+      <c r="S7" s="7">
+        <v>22</v>
+      </c>
+      <c r="T7" s="7">
+        <v>13</v>
+      </c>
+      <c r="U7" s="7">
+        <v>34</v>
+      </c>
+      <c r="V7" s="7">
+        <v>9</v>
+      </c>
+      <c r="W7" s="7">
+        <v>17</v>
+      </c>
+      <c r="X7" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>33</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>21</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>25</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>28</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>36</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>30</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>32</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>26</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>49</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>27</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>42</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>47</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>46</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>31</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>43</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>41</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>38</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>48</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>44</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>45</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7">
+        <v>12</v>
+      </c>
+      <c r="J8" s="7">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7">
+        <v>14</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>8</v>
+      </c>
+      <c r="N8" s="7">
+        <v>15</v>
+      </c>
+      <c r="O8" s="7">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>11</v>
+      </c>
+      <c r="R8" s="7">
+        <v>22</v>
+      </c>
+      <c r="S8" s="7">
+        <v>24</v>
+      </c>
+      <c r="T8" s="7">
+        <v>5</v>
+      </c>
+      <c r="U8" s="7">
+        <v>29</v>
+      </c>
+      <c r="V8" s="7">
+        <v>16</v>
+      </c>
+      <c r="W8" s="7">
+        <v>19</v>
+      </c>
+      <c r="X8" s="7">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>28</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>20</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>32</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>40</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>35</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>30</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>27</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>47</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>39</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>38</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>42</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>43</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>44</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>41</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>37</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>46</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>45</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>49</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>48</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>25</v>
+      </c>
+      <c r="K9" s="7">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>9</v>
+      </c>
+      <c r="N9" s="7">
+        <v>15</v>
+      </c>
+      <c r="O9" s="7">
+        <v>14</v>
+      </c>
+      <c r="P9" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>13</v>
+      </c>
+      <c r="R9" s="7">
+        <v>22</v>
+      </c>
+      <c r="S9" s="7">
+        <v>24</v>
+      </c>
+      <c r="T9" s="7">
+        <v>6</v>
+      </c>
+      <c r="U9" s="7">
+        <v>23</v>
+      </c>
+      <c r="V9" s="7">
+        <v>12</v>
+      </c>
+      <c r="W9" s="7">
+        <v>16</v>
+      </c>
+      <c r="X9" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>28</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>21</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>27</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>29</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>33</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>40</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>35</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>36</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>30</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>45</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>37</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>38</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>44</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>43</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>42</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>41</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>39</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>47</v>
+      </c>
+      <c r="AW9" s="7">
+        <v>48</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>49</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>46</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7">
+        <v>16</v>
+      </c>
+      <c r="O10" s="7">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>12</v>
+      </c>
+      <c r="R10" s="7">
+        <v>21</v>
+      </c>
+      <c r="S10" s="7">
+        <v>23</v>
+      </c>
+      <c r="T10" s="7">
+        <v>6</v>
+      </c>
+      <c r="U10" s="7">
+        <v>24</v>
+      </c>
+      <c r="V10" s="7">
+        <v>13</v>
+      </c>
+      <c r="W10" s="7">
+        <v>14</v>
+      </c>
+      <c r="X10" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>29</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>31</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>26</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>19</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>27</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>32</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>33</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>34</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>38</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>35</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>36</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>30</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>45</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>37</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>39</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>41</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>43</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>42</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>44</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>40</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>50</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>47</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>46</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>48</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8</v>
+      </c>
+      <c r="J11" s="7">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7">
+        <v>13</v>
+      </c>
+      <c r="O11" s="7">
+        <v>18</v>
+      </c>
+      <c r="P11" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>10</v>
+      </c>
+      <c r="R11" s="7">
+        <v>22</v>
+      </c>
+      <c r="S11" s="7">
+        <v>20</v>
+      </c>
+      <c r="T11" s="7">
+        <v>6</v>
+      </c>
+      <c r="U11" s="7">
+        <v>21</v>
+      </c>
+      <c r="V11" s="7">
+        <v>17</v>
+      </c>
+      <c r="W11" s="7">
+        <v>19</v>
+      </c>
+      <c r="X11" s="7">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>23</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>24</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>32</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>33</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>34</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>35</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>38</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>37</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>43</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>44</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>36</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>42</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>45</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>41</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>46</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>47</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>48</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>49</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>40</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7">
+        <v>9</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7">
+        <v>12</v>
+      </c>
+      <c r="N12" s="7">
+        <v>13</v>
+      </c>
+      <c r="O12" s="7">
+        <v>14</v>
+      </c>
+      <c r="P12" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>16</v>
+      </c>
+      <c r="R12" s="7">
+        <v>17</v>
+      </c>
+      <c r="S12" s="7">
+        <v>18</v>
+      </c>
+      <c r="T12" s="7">
+        <v>19</v>
+      </c>
+      <c r="U12" s="7">
+        <v>20</v>
+      </c>
+      <c r="V12" s="7">
+        <v>21</v>
+      </c>
+      <c r="W12" s="7">
+        <v>22</v>
+      </c>
+      <c r="X12" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>29</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>31</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>32</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>33</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>34</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>35</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>36</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>37</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>38</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>39</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>40</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>41</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>42</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>43</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>44</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>45</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>46</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>47</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>48</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>49</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>